--- a/CRS/CRS.xlsx
+++ b/CRS/CRS.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="CRS" sheetId="6" r:id="rId1"/>
+    <sheet name="CRS" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -64,16 +64,7 @@
     <t>CRS_00_13</t>
   </si>
   <si>
-    <t>CRS_00_14</t>
-  </si>
-  <si>
     <t>Three speed levels for the fan system.</t>
-  </si>
-  <si>
-    <t>Display the temperature  on the LCD .</t>
-  </si>
-  <si>
-    <t>Display the speed  on the LCD .</t>
   </si>
   <si>
     <t>Make the speed  corresponding  to the temperature configurable.</t>
@@ -95,9 +86,6 @@
     <t>No fan in the system ,only  displaying on LCD  the measured  reading .</t>
   </si>
   <si>
-    <t>The system must be on a PCB  .</t>
-  </si>
-  <si>
     <t>The size of the board  must be  small as much as we can .</t>
   </si>
   <si>
@@ -107,7 +95,13 @@
     <t>CRS FOR FAN CONTROLLER SYSTEM</t>
   </si>
   <si>
-    <t>Read the air temperature.</t>
+    <t>Read the temperature from the  air.</t>
+  </si>
+  <si>
+    <t>Display the temperature  and the speed on the LCD .</t>
+  </si>
+  <si>
+    <t>The system is prefered to be on a PCB .</t>
   </si>
 </sst>
 </file>
@@ -319,6 +313,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -346,13 +347,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -381,8 +375,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A2:B16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table32" displayName="Table32" ref="A2:B15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+  <autoFilter ref="A2:B15"/>
   <tableColumns count="2">
     <tableColumn id="1" name="ID" dataDxfId="1"/>
     <tableColumn id="2" name=" Description" dataDxfId="0"/>
@@ -678,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +686,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="1"/>
@@ -710,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -718,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -726,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -734,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -742,23 +736,23 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -766,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -774,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -782,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -790,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -798,23 +792,15 @@
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/CRS/CRS.xlsx
+++ b/CRS/CRS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="CRS" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -19,9 +19,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>LCD initilization  is empty with no displaying.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Description</t>
   </si>
   <si>
@@ -70,13 +67,6 @@
     <t>Make the speed  corresponding  to the temperature configurable.</t>
   </si>
   <si>
-    <t xml:space="preserve">A switch  for power controlling.  </t>
-  </si>
-  <si>
-    <t>Displaying  must be  on ahorizontal way  as title of  temp  and speed  are on the same line  
-and the reading for each are in another line  with each  reading under it's title.</t>
-  </si>
-  <si>
     <t>Displaying on the LCD must be static no moving text.</t>
   </si>
   <si>
@@ -101,18 +91,28 @@
     <t>Display the temperature  and the speed on the LCD .</t>
   </si>
   <si>
-    <t>The system is prefered to be on a PCB .</t>
+    <t xml:space="preserve">Toggle switch  for power controlling.  </t>
+  </si>
+  <si>
+    <t>LCD initialization  is empty with no displaying.</t>
+  </si>
+  <si>
+    <t>The system is preferred  to be on a PCB .</t>
+  </si>
+  <si>
+    <t>Displaying  must be  on a horizontal way  as title of  temp  and speed  are on the same line  
+and the reading for each are in another line  with each  reading under its title.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -120,7 +120,7 @@
       <b/>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -128,14 +128,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -264,7 +264,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -290,7 +290,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -346,7 +346,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -428,7 +428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,10 +460,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,7 +494,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -671,136 +669,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="101.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="14" spans="1:3" ht="18">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="15" spans="1:3" ht="18">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
